--- a/static/modele_vehicules.xlsx
+++ b/static/modele_vehicules.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>plate</t>
   </si>
@@ -48,6 +48,12 @@
   </si>
   <si>
     <t>FICHIER A REMPLIR</t>
+  </si>
+  <si>
+    <t>last_maintenance</t>
+  </si>
+  <si>
+    <t>photo</t>
   </si>
 </sst>
 </file>
@@ -163,6 +169,20 @@
   </cellStyles>
   <dxfs count="3">
     <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF3F3F3F"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF3F3F3F"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -173,20 +193,6 @@
         </right>
         <top/>
         <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color rgb="FF3F3F3F"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color rgb="FF3F3F3F"/>
-        </top>
       </border>
     </dxf>
   </dxfs>
@@ -203,9 +209,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="B5:H303" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2" headerRowCellStyle="Sortie">
-  <autoFilter ref="B5:H303"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="B5:J303" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0" headerRowCellStyle="Sortie">
+  <autoFilter ref="B5:J303"/>
+  <tableColumns count="9">
     <tableColumn id="1" name="plate"/>
     <tableColumn id="2" name="owner"/>
     <tableColumn id="3" name="insurance_expiry"/>
@@ -213,6 +219,8 @@
     <tableColumn id="5" name="brand"/>
     <tableColumn id="6" name="model"/>
     <tableColumn id="7" name="first_registration"/>
+    <tableColumn id="8" name="last_maintenance"/>
+    <tableColumn id="9" name="photo"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium28" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -481,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H5"/>
+  <dimension ref="B2:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -496,9 +504,10 @@
     <col min="6" max="6" width="33.140625" customWidth="1"/>
     <col min="7" max="7" width="36.85546875" customWidth="1"/>
     <col min="8" max="8" width="51" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
@@ -506,13 +515,13 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
@@ -533,6 +542,12 @@
       </c>
       <c r="H5" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
